--- a/Flipkart_selenium/Resources/TestData.xlsx
+++ b/Flipkart_selenium/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishant\git\Flipkart_Automation\Flipkart_selenium\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD66AEBE-B434-4545-95E7-9BB37CF3D0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32D8C0-0143-4F47-B352-2DCDBA3F1DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{5DCE8CA9-DFF8-4B64-B12E-7AD9D0028769}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5DCE8CA9-DFF8-4B64-B12E-7AD9D0028769}"/>
   </bookViews>
   <sheets>
     <sheet name="Home_test" sheetId="2" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>seller</t>
   </si>
   <si>
-    <t>Seller Dashboard</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Rs_Bln_Login</t>
+  </si>
+  <si>
+    <t>Sell Online on Flipkart | Grow your business with the leader in Indian e-commerce</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3E1181-3097-4642-9667-C1B5E0B51892}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,7 +649,7 @@
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
@@ -658,13 +658,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -672,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -711,7 +711,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -732,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85744B9F-049A-4F5A-9FCA-D0812C0CF200}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -799,7 +799,7 @@
     </row>
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -942,7 +942,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
